--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -276,7 +276,7 @@
 </t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
